--- a/lvbu/data/相容性列表（使用库）.xlsx
+++ b/lvbu/data/相容性列表（使用库）.xlsx
@@ -1,72 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2CF85-B9FD-4F01-860B-7BD8FD8FFF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="71">
   <si>
     <t>License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LGPL-2.1-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LGPL-2.1-or-later</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LGPL-3.0-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GPL-2.0-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GPL-2.0-or-later</t>
   </si>
   <si>
     <t>GPL-3.0-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AGPL-3.0-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Artistic-2.0</t>
   </si>
   <si>
     <t>CECILL-2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EPL-1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EPL-2.0</t>
@@ -85,62 +78,48 @@
   </si>
   <si>
     <t>OSL-3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CDDL-1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CPAL-1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CPL-1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IPL-1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LPL-1.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nokia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPSL-1.0</t>
   </si>
   <si>
     <t>SISSL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sleepycat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SPL-1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>php-3.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Apache-2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ECL-2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相容</t>
@@ -155,113 +134,106 @@
     <t>相容，组合遵循GPL-2.0-only</t>
   </si>
   <si>
+    <t>相容，组合遵循GPL-2.0-or -later</t>
+  </si>
+  <si>
+    <t>相容，组合遵循AGPL-3.0-only</t>
+  </si>
+  <si>
+    <t>相容，组合遵循CECILL-2.1</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循EUPL-1.1</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循EUPL-1.2</t>
+  </si>
+  <si>
+    <t>相容，组合遵循EUPL-1.1</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循EPL-1.0</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循OSL-3.0</t>
+  </si>
+  <si>
+    <t>相容，组合遵循EUPL-1.2</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循MPL-2.0</t>
+  </si>
+  <si>
+    <t>相容，组合遵循MS-RL</t>
+  </si>
+  <si>
+    <t>ODbL-1.0</t>
+  </si>
+  <si>
+    <t>相容，组合遵循ODbL-1.0</t>
+  </si>
+  <si>
+    <t>相容，组合遵循OSL-3.0</t>
+  </si>
+  <si>
+    <t>相容，组合遵循Vim</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循CECILL-2.1</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循EPL-2.0</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循MS-RL</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循Vim</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循CDDL-1.0</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循CPAL-1.0</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循CPL-1.0</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循IPL-1.0</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循Nokia</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循RPSL-1.0</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循SISSL</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循Sleepcat</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循LGPL-2.1-only</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循LGPL-2.1-or-later</t>
+  </si>
+  <si>
+    <t>相容，并入的代码遵循LGPL-3.0-only</t>
+  </si>
+  <si>
     <t>相容，并入的代码遵循GPL-2.0-only</t>
   </si>
   <si>
-    <t>相容，组合遵循GPL-2.0-or -later</t>
-  </si>
-  <si>
     <t>相容，并入的代码遵循GPL-2.0-or-later</t>
   </si>
   <si>
     <t>相容，并入的代码遵循GPL-3.0-only</t>
   </si>
   <si>
-    <t>相容，组合遵循AGPL-3.0-only</t>
-  </si>
-  <si>
     <t>相容，并入的代码遵循AGPL-3.0-only</t>
-  </si>
-  <si>
-    <t>相容，组合遵循CECILL-2.1</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循EUPL-1.1</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循EUPL-1.2</t>
-  </si>
-  <si>
-    <t>EPL-1.0</t>
-  </si>
-  <si>
-    <t>相容，组合遵循EUPL-1.1</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循EPL-1.0</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循OSL-3.0</t>
-  </si>
-  <si>
-    <t>相容，组合遵循EUPL-1.2</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循MPL-2.0</t>
-  </si>
-  <si>
-    <t>MPL-2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相容，组合遵循MS-RL</t>
-  </si>
-  <si>
-    <t>ODbL-1.0</t>
-  </si>
-  <si>
-    <t>相容，组合遵循ODbL-1.0</t>
-  </si>
-  <si>
-    <t>相容，组合遵循OSL-3.0</t>
-  </si>
-  <si>
-    <t>相容，组合遵循Vim</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循CECILL-2.1</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循EPL-2.0</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循MS-RL</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循Vim</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循CDDL-1.0</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循CPAL-1.0</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循CPL-1.0</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循IPL-1.0</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循Nokia</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循RPSL-1.0</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循SISSL</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循Sleepcat</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循LGPL-2.1-only</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循LGPL-2.1-or-later</t>
-  </si>
-  <si>
-    <t>相容，并入的代码遵循LGPL-3.0-only</t>
   </si>
   <si>
     <t>相容，并入的代码遵循LGPL-2.2-only</t>
@@ -273,24 +245,174 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,24 +421,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -326,22 +634,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -358,17 +908,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -417,7 +1011,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -452,7 +1046,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -626,26 +1220,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5:AA8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="41.4" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +1329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" ht="27.6" spans="1:31">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -835,7 +1424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="41.4" spans="1:31">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -930,7 +1519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" ht="55.2" spans="1:31">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1025,7 +1614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" ht="55.2" spans="1:31">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1120,15 +1709,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" ht="55.2" spans="1:31">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>33</v>
@@ -1146,25 +1735,25 @@
         <v>31</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>32</v>
@@ -1173,7 +1762,7 @@
         <v>32</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>32</v>
@@ -1194,13 +1783,13 @@
         <v>32</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>32</v>
@@ -1215,7 +1804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" ht="55.2" spans="1:31">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1310,36 +1899,36 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" ht="55.2" spans="1:31">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>32</v>
@@ -1351,10 +1940,10 @@
         <v>32</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>32</v>
@@ -1363,7 +1952,7 @@
         <v>32</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>32</v>
@@ -1384,13 +1973,13 @@
         <v>32</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>32</v>
@@ -1405,7 +1994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="27.6" spans="1:31">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +2089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" ht="55.2" spans="1:31">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1526,7 +2115,7 @@
         <v>31</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>31</v>
@@ -1538,10 +2127,10 @@
         <v>32</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>32</v>
@@ -1568,7 +2157,7 @@
         <v>32</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>32</v>
@@ -1595,9 +2184,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -1690,7 +2279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +2374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" ht="55.2" spans="1:31">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1811,13 +2400,13 @@
         <v>32</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>32</v>
@@ -1826,7 +2415,7 @@
         <v>31</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>32</v>
@@ -1835,7 +2424,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>32</v>
@@ -1853,7 +2442,7 @@
         <v>32</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>32</v>
@@ -1880,7 +2469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" ht="55.2" spans="1:31">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1906,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>31</v>
@@ -1924,13 +2513,13 @@
         <v>31</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>32</v>
@@ -1948,7 +2537,7 @@
         <v>32</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>32</v>
@@ -1975,9 +2564,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
@@ -2070,7 +2659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" ht="41.4" spans="1:31">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2096,7 +2685,7 @@
         <v>32</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>32</v>
@@ -2138,7 +2727,7 @@
         <v>32</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="X16" s="3" t="s">
         <v>32</v>
@@ -2165,9 +2754,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" ht="55.2" spans="1:31">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>32</v>
@@ -2191,7 +2780,7 @@
         <v>32</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>32</v>
@@ -2233,7 +2822,7 @@
         <v>32</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>32</v>
@@ -2260,7 +2849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" ht="41.4" spans="1:31">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2286,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>32</v>
@@ -2298,10 +2887,10 @@
         <v>32</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>32</v>
@@ -2328,7 +2917,7 @@
         <v>32</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>32</v>
@@ -2355,7 +2944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" ht="41.4" spans="1:31">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2381,7 +2970,7 @@
         <v>31</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>32</v>
@@ -2423,7 +3012,7 @@
         <v>31</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="X19" s="3" t="s">
         <v>32</v>
@@ -2450,7 +3039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2545,7 +3134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2640,7 +3229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2735,7 +3324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2830,7 +3419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="24" ht="69" spans="1:31">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2859,61 +3448,61 @@
         <v>31</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="V24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P24" s="4" t="s">
+      <c r="W24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R24" s="4" t="s">
+      <c r="Y24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="Z24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="AA24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AB24" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AC24" s="2" t="s">
         <v>31</v>
@@ -2925,7 +3514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3020,31 +3609,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="26" ht="82.8" spans="1:31">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="I26" s="2" t="s">
         <v>31</v>
       </c>
@@ -3064,7 +3653,7 @@
         <v>32</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>32</v>
@@ -3082,10 +3671,10 @@
         <v>32</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>32</v>
@@ -3115,7 +3704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3210,34 +3799,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="28" ht="82.8" spans="1:31">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="J28" s="3" t="s">
         <v>32</v>
       </c>
@@ -3278,7 +3867,7 @@
         <v>32</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X28" s="3" t="s">
         <v>32</v>
@@ -3305,7 +3894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3400,7 +3989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="27.6" spans="1:31">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3495,7 +4084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3590,7 +4179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -3686,7 +4275,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>